--- a/Input/Orient_Nextcare/rateSheet.xlsx
+++ b/Input/Orient_Nextcare/rateSheet.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$577</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$I$1</definedName>
   </definedNames>
@@ -80,7 +81,7 @@
     <t xml:space="preserve">female</t>
   </si>
   <si>
-    <t xml:space="preserve">Nil</t>
+    <t xml:space="preserve">Consultation- NIL, OP- NIL, Pharmacy- NIL</t>
   </si>
   <si>
     <t xml:space="preserve">Consultations AED 50, diagnostics 20% co-pay and pharma 20% co-pay</t>
@@ -123,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -178,6 +179,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <u val="single"/>
       <sz val="10"/>
@@ -229,7 +236,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -266,35 +273,45 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J577"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M41" activeCellId="0" sqref="M41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="84.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="11.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="54.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1375,7 +1392,7 @@
       <c r="G34" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I34" s="0" t="s">
@@ -1407,7 +1424,7 @@
       <c r="G35" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I35" s="0" t="s">
@@ -1439,7 +1456,7 @@
       <c r="G36" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I36" s="0" t="s">
@@ -1471,7 +1488,7 @@
       <c r="G37" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I37" s="0" t="s">
@@ -1503,7 +1520,7 @@
       <c r="G38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I38" s="0" t="s">
@@ -1535,7 +1552,7 @@
       <c r="G39" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="0" t="s">
@@ -1567,7 +1584,7 @@
       <c r="G40" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I40" s="0" t="s">
@@ -1599,7 +1616,7 @@
       <c r="G41" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I41" s="0" t="s">
@@ -1631,7 +1648,7 @@
       <c r="G42" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I42" s="0" t="s">
@@ -1663,7 +1680,7 @@
       <c r="G43" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I43" s="0" t="s">
@@ -1695,7 +1712,7 @@
       <c r="G44" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I44" s="0" t="s">
@@ -1727,7 +1744,7 @@
       <c r="G45" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I45" s="0" t="s">
@@ -1759,7 +1776,7 @@
       <c r="G46" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I46" s="0" t="s">
@@ -1791,7 +1808,7 @@
       <c r="G47" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I47" s="0" t="s">
@@ -1823,7 +1840,7 @@
       <c r="G48" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I48" s="0" t="s">
@@ -1855,7 +1872,7 @@
       <c r="G49" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I49" s="0" t="s">
@@ -1887,7 +1904,7 @@
       <c r="G50" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I50" s="0" t="s">
@@ -1919,7 +1936,7 @@
       <c r="G51" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H51" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I51" s="0" t="s">
@@ -1951,7 +1968,7 @@
       <c r="G52" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I52" s="0" t="s">
@@ -1983,7 +2000,7 @@
       <c r="G53" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I53" s="0" t="s">
@@ -2015,7 +2032,7 @@
       <c r="G54" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I54" s="0" t="s">
@@ -2047,7 +2064,7 @@
       <c r="G55" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H55" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I55" s="0" t="s">
@@ -2079,7 +2096,7 @@
       <c r="G56" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I56" s="0" t="s">
@@ -2111,7 +2128,7 @@
       <c r="G57" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I57" s="0" t="s">
@@ -2143,7 +2160,7 @@
       <c r="G58" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I58" s="0" t="s">
@@ -2175,7 +2192,7 @@
       <c r="G59" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I59" s="0" t="s">
@@ -2207,7 +2224,7 @@
       <c r="G60" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I60" s="0" t="s">
@@ -2239,7 +2256,7 @@
       <c r="G61" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H61" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I61" s="0" t="s">
@@ -2271,7 +2288,7 @@
       <c r="G62" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I62" s="0" t="s">
@@ -2303,7 +2320,7 @@
       <c r="G63" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H63" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I63" s="0" t="s">
@@ -2335,7 +2352,7 @@
       <c r="G64" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H64" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I64" s="0" t="s">
@@ -2367,7 +2384,7 @@
       <c r="G65" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="H65" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I65" s="0" t="s">
@@ -4447,7 +4464,7 @@
       <c r="G130" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H130" s="7" t="s">
+      <c r="H130" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I130" s="0" t="s">
@@ -4479,7 +4496,7 @@
       <c r="G131" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H131" s="7" t="s">
+      <c r="H131" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I131" s="0" t="s">
@@ -4511,7 +4528,7 @@
       <c r="G132" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H132" s="7" t="s">
+      <c r="H132" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I132" s="0" t="s">
@@ -4543,7 +4560,7 @@
       <c r="G133" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H133" s="7" t="s">
+      <c r="H133" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I133" s="0" t="s">
@@ -4575,7 +4592,7 @@
       <c r="G134" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H134" s="7" t="s">
+      <c r="H134" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I134" s="0" t="s">
@@ -4607,7 +4624,7 @@
       <c r="G135" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H135" s="7" t="s">
+      <c r="H135" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I135" s="0" t="s">
@@ -4639,7 +4656,7 @@
       <c r="G136" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H136" s="7" t="s">
+      <c r="H136" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I136" s="0" t="s">
@@ -4671,7 +4688,7 @@
       <c r="G137" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H137" s="7" t="s">
+      <c r="H137" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I137" s="0" t="s">
@@ -4703,7 +4720,7 @@
       <c r="G138" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H138" s="7" t="s">
+      <c r="H138" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I138" s="0" t="s">
@@ -4735,7 +4752,7 @@
       <c r="G139" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H139" s="7" t="s">
+      <c r="H139" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I139" s="0" t="s">
@@ -4767,7 +4784,7 @@
       <c r="G140" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H140" s="7" t="s">
+      <c r="H140" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I140" s="0" t="s">
@@ -4799,7 +4816,7 @@
       <c r="G141" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H141" s="7" t="s">
+      <c r="H141" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I141" s="0" t="s">
@@ -4831,7 +4848,7 @@
       <c r="G142" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H142" s="7" t="s">
+      <c r="H142" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I142" s="0" t="s">
@@ -4863,7 +4880,7 @@
       <c r="G143" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H143" s="7" t="s">
+      <c r="H143" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I143" s="0" t="s">
@@ -4895,7 +4912,7 @@
       <c r="G144" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H144" s="7" t="s">
+      <c r="H144" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I144" s="0" t="s">
@@ -4927,7 +4944,7 @@
       <c r="G145" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H145" s="7" t="s">
+      <c r="H145" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I145" s="0" t="s">
@@ -4959,7 +4976,7 @@
       <c r="G146" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H146" s="7" t="s">
+      <c r="H146" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I146" s="0" t="s">
@@ -4991,7 +5008,7 @@
       <c r="G147" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H147" s="7" t="s">
+      <c r="H147" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I147" s="0" t="s">
@@ -5023,7 +5040,7 @@
       <c r="G148" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H148" s="7" t="s">
+      <c r="H148" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I148" s="0" t="s">
@@ -5055,7 +5072,7 @@
       <c r="G149" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H149" s="7" t="s">
+      <c r="H149" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I149" s="0" t="s">
@@ -5087,7 +5104,7 @@
       <c r="G150" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H150" s="7" t="s">
+      <c r="H150" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I150" s="0" t="s">
@@ -5119,7 +5136,7 @@
       <c r="G151" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H151" s="7" t="s">
+      <c r="H151" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I151" s="0" t="s">
@@ -5151,7 +5168,7 @@
       <c r="G152" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H152" s="7" t="s">
+      <c r="H152" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I152" s="0" t="s">
@@ -5183,7 +5200,7 @@
       <c r="G153" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H153" s="7" t="s">
+      <c r="H153" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I153" s="0" t="s">
@@ -5215,7 +5232,7 @@
       <c r="G154" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H154" s="7" t="s">
+      <c r="H154" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I154" s="0" t="s">
@@ -5247,7 +5264,7 @@
       <c r="G155" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H155" s="7" t="s">
+      <c r="H155" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I155" s="0" t="s">
@@ -5279,7 +5296,7 @@
       <c r="G156" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H156" s="7" t="s">
+      <c r="H156" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I156" s="0" t="s">
@@ -5311,7 +5328,7 @@
       <c r="G157" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H157" s="7" t="s">
+      <c r="H157" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I157" s="0" t="s">
@@ -5343,7 +5360,7 @@
       <c r="G158" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H158" s="7" t="s">
+      <c r="H158" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I158" s="0" t="s">
@@ -5375,7 +5392,7 @@
       <c r="G159" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H159" s="7" t="s">
+      <c r="H159" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I159" s="0" t="s">
@@ -5407,7 +5424,7 @@
       <c r="G160" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H160" s="7" t="s">
+      <c r="H160" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I160" s="0" t="s">
@@ -5439,7 +5456,7 @@
       <c r="G161" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H161" s="7" t="s">
+      <c r="H161" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I161" s="0" t="s">
@@ -6474,7 +6491,7 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="8" t="s">
+      <c r="A194" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B194" s="5" t="s">
@@ -6506,7 +6523,7 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="8" t="s">
+      <c r="A195" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B195" s="5" t="s">
@@ -6538,7 +6555,7 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="8" t="s">
+      <c r="A196" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B196" s="5" t="s">
@@ -6570,7 +6587,7 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="8" t="s">
+      <c r="A197" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B197" s="5" t="s">
@@ -6602,7 +6619,7 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="8" t="s">
+      <c r="A198" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B198" s="5" t="s">
@@ -6634,7 +6651,7 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="8" t="s">
+      <c r="A199" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B199" s="5" t="s">
@@ -6666,7 +6683,7 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="8" t="s">
+      <c r="A200" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B200" s="5" t="s">
@@ -6698,7 +6715,7 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="8" t="s">
+      <c r="A201" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B201" s="5" t="s">
@@ -6730,7 +6747,7 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="8" t="s">
+      <c r="A202" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B202" s="5" t="s">
@@ -6762,7 +6779,7 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="8" t="s">
+      <c r="A203" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B203" s="5" t="s">
@@ -6794,7 +6811,7 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="8" t="s">
+      <c r="A204" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B204" s="5" t="s">
@@ -6826,7 +6843,7 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="8" t="s">
+      <c r="A205" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B205" s="5" t="s">
@@ -6858,7 +6875,7 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="8" t="s">
+      <c r="A206" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B206" s="5" t="s">
@@ -6890,7 +6907,7 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="8" t="s">
+      <c r="A207" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B207" s="5" t="s">
@@ -6922,7 +6939,7 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="8" t="s">
+      <c r="A208" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B208" s="5" t="s">
@@ -6954,7 +6971,7 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="8" t="s">
+      <c r="A209" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B209" s="5" t="s">
@@ -6986,7 +7003,7 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="8" t="s">
+      <c r="A210" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B210" s="5" t="s">
@@ -7018,7 +7035,7 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="8" t="s">
+      <c r="A211" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B211" s="5" t="s">
@@ -7050,7 +7067,7 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="8" t="s">
+      <c r="A212" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B212" s="5" t="s">
@@ -7082,7 +7099,7 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B213" s="5" t="s">
@@ -7114,7 +7131,7 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="8" t="s">
+      <c r="A214" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B214" s="5" t="s">
@@ -7146,7 +7163,7 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="8" t="s">
+      <c r="A215" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B215" s="5" t="s">
@@ -7178,7 +7195,7 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="8" t="s">
+      <c r="A216" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B216" s="5" t="s">
@@ -7210,7 +7227,7 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="8" t="s">
+      <c r="A217" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B217" s="5" t="s">
@@ -7242,7 +7259,7 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="8" t="s">
+      <c r="A218" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B218" s="5" t="s">
@@ -7274,7 +7291,7 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="8" t="s">
+      <c r="A219" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B219" s="5" t="s">
@@ -7306,7 +7323,7 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="8" t="s">
+      <c r="A220" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B220" s="5" t="s">
@@ -7338,7 +7355,7 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="8" t="s">
+      <c r="A221" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B221" s="5" t="s">
@@ -7370,7 +7387,7 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="8" t="s">
+      <c r="A222" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B222" s="5" t="s">
@@ -7402,7 +7419,7 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="8" t="s">
+      <c r="A223" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B223" s="5" t="s">
@@ -7434,7 +7451,7 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="8" t="s">
+      <c r="A224" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B224" s="5" t="s">
@@ -7466,7 +7483,7 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="8" t="s">
+      <c r="A225" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B225" s="5" t="s">
@@ -7498,7 +7515,7 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="8" t="s">
+      <c r="A226" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B226" s="5" t="s">
@@ -7519,7 +7536,7 @@
       <c r="G226" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H226" s="7" t="s">
+      <c r="H226" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I226" s="0" t="s">
@@ -7530,7 +7547,7 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="8" t="s">
+      <c r="A227" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B227" s="5" t="s">
@@ -7551,7 +7568,7 @@
       <c r="G227" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H227" s="7" t="s">
+      <c r="H227" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I227" s="0" t="s">
@@ -7562,7 +7579,7 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="8" t="s">
+      <c r="A228" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B228" s="5" t="s">
@@ -7583,7 +7600,7 @@
       <c r="G228" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H228" s="7" t="s">
+      <c r="H228" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I228" s="0" t="s">
@@ -7594,7 +7611,7 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="8" t="s">
+      <c r="A229" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B229" s="5" t="s">
@@ -7615,7 +7632,7 @@
       <c r="G229" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H229" s="7" t="s">
+      <c r="H229" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I229" s="0" t="s">
@@ -7626,7 +7643,7 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="8" t="s">
+      <c r="A230" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B230" s="5" t="s">
@@ -7647,7 +7664,7 @@
       <c r="G230" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H230" s="7" t="s">
+      <c r="H230" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I230" s="0" t="s">
@@ -7658,7 +7675,7 @@
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="8" t="s">
+      <c r="A231" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B231" s="5" t="s">
@@ -7679,7 +7696,7 @@
       <c r="G231" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H231" s="7" t="s">
+      <c r="H231" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I231" s="0" t="s">
@@ -7690,7 +7707,7 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="8" t="s">
+      <c r="A232" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B232" s="5" t="s">
@@ -7711,7 +7728,7 @@
       <c r="G232" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H232" s="7" t="s">
+      <c r="H232" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I232" s="0" t="s">
@@ -7722,7 +7739,7 @@
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="8" t="s">
+      <c r="A233" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B233" s="5" t="s">
@@ -7743,7 +7760,7 @@
       <c r="G233" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H233" s="7" t="s">
+      <c r="H233" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I233" s="0" t="s">
@@ -7754,7 +7771,7 @@
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="8" t="s">
+      <c r="A234" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B234" s="5" t="s">
@@ -7775,7 +7792,7 @@
       <c r="G234" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H234" s="7" t="s">
+      <c r="H234" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I234" s="0" t="s">
@@ -7786,7 +7803,7 @@
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="8" t="s">
+      <c r="A235" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B235" s="5" t="s">
@@ -7807,7 +7824,7 @@
       <c r="G235" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H235" s="7" t="s">
+      <c r="H235" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I235" s="0" t="s">
@@ -7818,7 +7835,7 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="8" t="s">
+      <c r="A236" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B236" s="5" t="s">
@@ -7839,7 +7856,7 @@
       <c r="G236" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H236" s="7" t="s">
+      <c r="H236" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I236" s="0" t="s">
@@ -7850,7 +7867,7 @@
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="8" t="s">
+      <c r="A237" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B237" s="5" t="s">
@@ -7871,7 +7888,7 @@
       <c r="G237" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H237" s="7" t="s">
+      <c r="H237" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I237" s="0" t="s">
@@ -7882,7 +7899,7 @@
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="8" t="s">
+      <c r="A238" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B238" s="5" t="s">
@@ -7903,7 +7920,7 @@
       <c r="G238" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H238" s="7" t="s">
+      <c r="H238" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I238" s="0" t="s">
@@ -7914,7 +7931,7 @@
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B239" s="5" t="s">
@@ -7935,7 +7952,7 @@
       <c r="G239" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H239" s="7" t="s">
+      <c r="H239" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I239" s="0" t="s">
@@ -7946,7 +7963,7 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="8" t="s">
+      <c r="A240" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B240" s="5" t="s">
@@ -7967,7 +7984,7 @@
       <c r="G240" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H240" s="7" t="s">
+      <c r="H240" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I240" s="0" t="s">
@@ -7978,7 +7995,7 @@
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="8" t="s">
+      <c r="A241" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B241" s="5" t="s">
@@ -7999,7 +8016,7 @@
       <c r="G241" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H241" s="7" t="s">
+      <c r="H241" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I241" s="0" t="s">
@@ -8010,7 +8027,7 @@
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="8" t="s">
+      <c r="A242" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B242" s="5" t="s">
@@ -8031,7 +8048,7 @@
       <c r="G242" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H242" s="7" t="s">
+      <c r="H242" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I242" s="0" t="s">
@@ -8042,7 +8059,7 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="8" t="s">
+      <c r="A243" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B243" s="5" t="s">
@@ -8063,7 +8080,7 @@
       <c r="G243" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H243" s="7" t="s">
+      <c r="H243" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I243" s="0" t="s">
@@ -8074,7 +8091,7 @@
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="8" t="s">
+      <c r="A244" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B244" s="5" t="s">
@@ -8095,7 +8112,7 @@
       <c r="G244" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H244" s="7" t="s">
+      <c r="H244" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I244" s="0" t="s">
@@ -8106,7 +8123,7 @@
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="8" t="s">
+      <c r="A245" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B245" s="5" t="s">
@@ -8127,7 +8144,7 @@
       <c r="G245" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H245" s="7" t="s">
+      <c r="H245" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I245" s="0" t="s">
@@ -8138,7 +8155,7 @@
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="8" t="s">
+      <c r="A246" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B246" s="5" t="s">
@@ -8159,7 +8176,7 @@
       <c r="G246" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H246" s="7" t="s">
+      <c r="H246" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I246" s="0" t="s">
@@ -8170,7 +8187,7 @@
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="8" t="s">
+      <c r="A247" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B247" s="5" t="s">
@@ -8191,7 +8208,7 @@
       <c r="G247" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H247" s="7" t="s">
+      <c r="H247" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I247" s="0" t="s">
@@ -8202,7 +8219,7 @@
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="8" t="s">
+      <c r="A248" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B248" s="5" t="s">
@@ -8223,7 +8240,7 @@
       <c r="G248" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H248" s="7" t="s">
+      <c r="H248" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I248" s="0" t="s">
@@ -8234,7 +8251,7 @@
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="8" t="s">
+      <c r="A249" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B249" s="5" t="s">
@@ -8255,7 +8272,7 @@
       <c r="G249" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H249" s="7" t="s">
+      <c r="H249" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I249" s="0" t="s">
@@ -8266,7 +8283,7 @@
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="8" t="s">
+      <c r="A250" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B250" s="5" t="s">
@@ -8287,7 +8304,7 @@
       <c r="G250" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H250" s="7" t="s">
+      <c r="H250" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I250" s="0" t="s">
@@ -8298,7 +8315,7 @@
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="8" t="s">
+      <c r="A251" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B251" s="5" t="s">
@@ -8319,7 +8336,7 @@
       <c r="G251" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H251" s="7" t="s">
+      <c r="H251" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I251" s="0" t="s">
@@ -8330,7 +8347,7 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="8" t="s">
+      <c r="A252" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B252" s="5" t="s">
@@ -8351,7 +8368,7 @@
       <c r="G252" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H252" s="7" t="s">
+      <c r="H252" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I252" s="0" t="s">
@@ -8362,7 +8379,7 @@
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="8" t="s">
+      <c r="A253" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B253" s="5" t="s">
@@ -8383,7 +8400,7 @@
       <c r="G253" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H253" s="7" t="s">
+      <c r="H253" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I253" s="0" t="s">
@@ -8394,7 +8411,7 @@
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="8" t="s">
+      <c r="A254" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B254" s="5" t="s">
@@ -8415,7 +8432,7 @@
       <c r="G254" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H254" s="7" t="s">
+      <c r="H254" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I254" s="0" t="s">
@@ -8426,7 +8443,7 @@
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="8" t="s">
+      <c r="A255" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B255" s="5" t="s">
@@ -8447,7 +8464,7 @@
       <c r="G255" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H255" s="7" t="s">
+      <c r="H255" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I255" s="0" t="s">
@@ -8458,7 +8475,7 @@
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="8" t="s">
+      <c r="A256" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B256" s="5" t="s">
@@ -8479,7 +8496,7 @@
       <c r="G256" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H256" s="7" t="s">
+      <c r="H256" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I256" s="0" t="s">
@@ -8490,7 +8507,7 @@
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="8" t="s">
+      <c r="A257" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B257" s="5" t="s">
@@ -8511,7 +8528,7 @@
       <c r="G257" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H257" s="7" t="s">
+      <c r="H257" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I257" s="0" t="s">
@@ -8522,7 +8539,7 @@
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="8" t="s">
+      <c r="A258" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B258" s="5" t="s">
@@ -8554,7 +8571,7 @@
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="8" t="s">
+      <c r="A259" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B259" s="5" t="s">
@@ -8586,7 +8603,7 @@
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="8" t="s">
+      <c r="A260" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B260" s="5" t="s">
@@ -8618,7 +8635,7 @@
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="8" t="s">
+      <c r="A261" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B261" s="5" t="s">
@@ -8650,7 +8667,7 @@
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="8" t="s">
+      <c r="A262" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B262" s="5" t="s">
@@ -8682,7 +8699,7 @@
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="8" t="s">
+      <c r="A263" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B263" s="5" t="s">
@@ -8714,7 +8731,7 @@
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="8" t="s">
+      <c r="A264" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B264" s="5" t="s">
@@ -8746,7 +8763,7 @@
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B265" s="5" t="s">
@@ -8778,7 +8795,7 @@
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="8" t="s">
+      <c r="A266" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B266" s="5" t="s">
@@ -8810,7 +8827,7 @@
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="8" t="s">
+      <c r="A267" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B267" s="5" t="s">
@@ -8842,7 +8859,7 @@
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="8" t="s">
+      <c r="A268" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B268" s="5" t="s">
@@ -8874,7 +8891,7 @@
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="8" t="s">
+      <c r="A269" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B269" s="5" t="s">
@@ -8906,7 +8923,7 @@
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="8" t="s">
+      <c r="A270" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B270" s="5" t="s">
@@ -8938,7 +8955,7 @@
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="8" t="s">
+      <c r="A271" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B271" s="5" t="s">
@@ -8970,7 +8987,7 @@
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="8" t="s">
+      <c r="A272" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B272" s="5" t="s">
@@ -9002,7 +9019,7 @@
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="8" t="s">
+      <c r="A273" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B273" s="5" t="s">
@@ -9034,7 +9051,7 @@
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="8" t="s">
+      <c r="A274" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B274" s="5" t="s">
@@ -9066,7 +9083,7 @@
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="8" t="s">
+      <c r="A275" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B275" s="5" t="s">
@@ -9098,7 +9115,7 @@
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="8" t="s">
+      <c r="A276" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B276" s="5" t="s">
@@ -9130,7 +9147,7 @@
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="8" t="s">
+      <c r="A277" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B277" s="5" t="s">
@@ -9162,7 +9179,7 @@
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="8" t="s">
+      <c r="A278" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B278" s="5" t="s">
@@ -9194,7 +9211,7 @@
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="8" t="s">
+      <c r="A279" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B279" s="5" t="s">
@@ -9226,7 +9243,7 @@
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="8" t="s">
+      <c r="A280" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B280" s="5" t="s">
@@ -9258,7 +9275,7 @@
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="8" t="s">
+      <c r="A281" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B281" s="5" t="s">
@@ -9290,7 +9307,7 @@
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="8" t="s">
+      <c r="A282" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B282" s="5" t="s">
@@ -9322,7 +9339,7 @@
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="8" t="s">
+      <c r="A283" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B283" s="5" t="s">
@@ -9354,7 +9371,7 @@
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="8" t="s">
+      <c r="A284" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B284" s="5" t="s">
@@ -9386,7 +9403,7 @@
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="8" t="s">
+      <c r="A285" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B285" s="5" t="s">
@@ -9418,7 +9435,7 @@
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="8" t="s">
+      <c r="A286" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B286" s="5" t="s">
@@ -9450,7 +9467,7 @@
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="8" t="s">
+      <c r="A287" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B287" s="5" t="s">
@@ -9482,7 +9499,7 @@
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="8" t="s">
+      <c r="A288" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B288" s="5" t="s">
@@ -9514,7 +9531,7 @@
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="8" t="s">
+      <c r="A289" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B289" s="5" t="s">
@@ -10591,7 +10608,7 @@
       <c r="G322" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H322" s="7" t="s">
+      <c r="H322" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I322" s="0" t="s">
@@ -10623,7 +10640,7 @@
       <c r="G323" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H323" s="7" t="s">
+      <c r="H323" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I323" s="0" t="s">
@@ -10655,7 +10672,7 @@
       <c r="G324" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H324" s="7" t="s">
+      <c r="H324" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I324" s="0" t="s">
@@ -10687,7 +10704,7 @@
       <c r="G325" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H325" s="7" t="s">
+      <c r="H325" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I325" s="0" t="s">
@@ -10719,7 +10736,7 @@
       <c r="G326" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H326" s="7" t="s">
+      <c r="H326" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I326" s="0" t="s">
@@ -10751,7 +10768,7 @@
       <c r="G327" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H327" s="7" t="s">
+      <c r="H327" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I327" s="0" t="s">
@@ -10783,7 +10800,7 @@
       <c r="G328" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H328" s="7" t="s">
+      <c r="H328" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I328" s="0" t="s">
@@ -10815,7 +10832,7 @@
       <c r="G329" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H329" s="7" t="s">
+      <c r="H329" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I329" s="0" t="s">
@@ -10847,7 +10864,7 @@
       <c r="G330" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H330" s="7" t="s">
+      <c r="H330" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I330" s="0" t="s">
@@ -10879,7 +10896,7 @@
       <c r="G331" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H331" s="7" t="s">
+      <c r="H331" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I331" s="0" t="s">
@@ -10911,7 +10928,7 @@
       <c r="G332" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H332" s="7" t="s">
+      <c r="H332" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I332" s="0" t="s">
@@ -10943,7 +10960,7 @@
       <c r="G333" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H333" s="7" t="s">
+      <c r="H333" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I333" s="0" t="s">
@@ -10975,7 +10992,7 @@
       <c r="G334" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H334" s="7" t="s">
+      <c r="H334" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I334" s="0" t="s">
@@ -11007,7 +11024,7 @@
       <c r="G335" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H335" s="7" t="s">
+      <c r="H335" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I335" s="0" t="s">
@@ -11039,7 +11056,7 @@
       <c r="G336" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H336" s="7" t="s">
+      <c r="H336" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I336" s="0" t="s">
@@ -11071,7 +11088,7 @@
       <c r="G337" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H337" s="7" t="s">
+      <c r="H337" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I337" s="0" t="s">
@@ -11103,7 +11120,7 @@
       <c r="G338" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H338" s="7" t="s">
+      <c r="H338" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I338" s="0" t="s">
@@ -11135,7 +11152,7 @@
       <c r="G339" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H339" s="7" t="s">
+      <c r="H339" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I339" s="0" t="s">
@@ -11167,7 +11184,7 @@
       <c r="G340" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H340" s="7" t="s">
+      <c r="H340" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I340" s="0" t="s">
@@ -11199,7 +11216,7 @@
       <c r="G341" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H341" s="7" t="s">
+      <c r="H341" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I341" s="0" t="s">
@@ -11231,7 +11248,7 @@
       <c r="G342" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H342" s="7" t="s">
+      <c r="H342" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I342" s="0" t="s">
@@ -11263,7 +11280,7 @@
       <c r="G343" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H343" s="7" t="s">
+      <c r="H343" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I343" s="0" t="s">
@@ -11295,7 +11312,7 @@
       <c r="G344" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H344" s="7" t="s">
+      <c r="H344" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I344" s="0" t="s">
@@ -11327,7 +11344,7 @@
       <c r="G345" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H345" s="7" t="s">
+      <c r="H345" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I345" s="0" t="s">
@@ -11359,7 +11376,7 @@
       <c r="G346" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H346" s="7" t="s">
+      <c r="H346" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I346" s="0" t="s">
@@ -11391,7 +11408,7 @@
       <c r="G347" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H347" s="7" t="s">
+      <c r="H347" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I347" s="0" t="s">
@@ -11423,7 +11440,7 @@
       <c r="G348" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H348" s="7" t="s">
+      <c r="H348" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I348" s="0" t="s">
@@ -11455,7 +11472,7 @@
       <c r="G349" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H349" s="7" t="s">
+      <c r="H349" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I349" s="0" t="s">
@@ -11487,7 +11504,7 @@
       <c r="G350" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H350" s="7" t="s">
+      <c r="H350" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I350" s="0" t="s">
@@ -11519,7 +11536,7 @@
       <c r="G351" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H351" s="7" t="s">
+      <c r="H351" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I351" s="0" t="s">
@@ -11551,7 +11568,7 @@
       <c r="G352" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H352" s="7" t="s">
+      <c r="H352" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I352" s="0" t="s">
@@ -11583,7 +11600,7 @@
       <c r="G353" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H353" s="7" t="s">
+      <c r="H353" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I353" s="0" t="s">
@@ -13663,7 +13680,7 @@
       <c r="G418" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H418" s="7" t="s">
+      <c r="H418" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I418" s="0" t="s">
@@ -13695,7 +13712,7 @@
       <c r="G419" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H419" s="7" t="s">
+      <c r="H419" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I419" s="0" t="s">
@@ -13727,7 +13744,7 @@
       <c r="G420" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H420" s="7" t="s">
+      <c r="H420" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I420" s="0" t="s">
@@ -13759,7 +13776,7 @@
       <c r="G421" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H421" s="7" t="s">
+      <c r="H421" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I421" s="0" t="s">
@@ -13791,7 +13808,7 @@
       <c r="G422" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H422" s="7" t="s">
+      <c r="H422" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I422" s="0" t="s">
@@ -13823,7 +13840,7 @@
       <c r="G423" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H423" s="7" t="s">
+      <c r="H423" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I423" s="0" t="s">
@@ -13855,7 +13872,7 @@
       <c r="G424" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H424" s="7" t="s">
+      <c r="H424" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I424" s="0" t="s">
@@ -13887,7 +13904,7 @@
       <c r="G425" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H425" s="7" t="s">
+      <c r="H425" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I425" s="0" t="s">
@@ -13919,7 +13936,7 @@
       <c r="G426" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H426" s="7" t="s">
+      <c r="H426" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I426" s="0" t="s">
@@ -13951,7 +13968,7 @@
       <c r="G427" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H427" s="7" t="s">
+      <c r="H427" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I427" s="0" t="s">
@@ -13983,7 +14000,7 @@
       <c r="G428" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H428" s="7" t="s">
+      <c r="H428" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I428" s="0" t="s">
@@ -14015,7 +14032,7 @@
       <c r="G429" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H429" s="7" t="s">
+      <c r="H429" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I429" s="0" t="s">
@@ -14047,7 +14064,7 @@
       <c r="G430" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H430" s="7" t="s">
+      <c r="H430" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I430" s="0" t="s">
@@ -14079,7 +14096,7 @@
       <c r="G431" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H431" s="7" t="s">
+      <c r="H431" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I431" s="0" t="s">
@@ -14111,7 +14128,7 @@
       <c r="G432" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H432" s="7" t="s">
+      <c r="H432" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I432" s="0" t="s">
@@ -14143,7 +14160,7 @@
       <c r="G433" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H433" s="7" t="s">
+      <c r="H433" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I433" s="0" t="s">
@@ -14175,7 +14192,7 @@
       <c r="G434" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H434" s="7" t="s">
+      <c r="H434" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I434" s="0" t="s">
@@ -14207,7 +14224,7 @@
       <c r="G435" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H435" s="7" t="s">
+      <c r="H435" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I435" s="0" t="s">
@@ -14239,7 +14256,7 @@
       <c r="G436" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H436" s="7" t="s">
+      <c r="H436" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I436" s="0" t="s">
@@ -14271,7 +14288,7 @@
       <c r="G437" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H437" s="7" t="s">
+      <c r="H437" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I437" s="0" t="s">
@@ -14303,7 +14320,7 @@
       <c r="G438" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H438" s="7" t="s">
+      <c r="H438" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I438" s="0" t="s">
@@ -14335,7 +14352,7 @@
       <c r="G439" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H439" s="7" t="s">
+      <c r="H439" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I439" s="0" t="s">
@@ -14367,7 +14384,7 @@
       <c r="G440" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H440" s="7" t="s">
+      <c r="H440" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I440" s="0" t="s">
@@ -14399,7 +14416,7 @@
       <c r="G441" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H441" s="7" t="s">
+      <c r="H441" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I441" s="0" t="s">
@@ -14431,7 +14448,7 @@
       <c r="G442" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H442" s="7" t="s">
+      <c r="H442" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I442" s="0" t="s">
@@ -14463,7 +14480,7 @@
       <c r="G443" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H443" s="7" t="s">
+      <c r="H443" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I443" s="0" t="s">
@@ -14495,7 +14512,7 @@
       <c r="G444" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H444" s="7" t="s">
+      <c r="H444" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I444" s="0" t="s">
@@ -14527,7 +14544,7 @@
       <c r="G445" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H445" s="7" t="s">
+      <c r="H445" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I445" s="0" t="s">
@@ -14559,7 +14576,7 @@
       <c r="G446" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H446" s="7" t="s">
+      <c r="H446" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I446" s="0" t="s">
@@ -14591,7 +14608,7 @@
       <c r="G447" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H447" s="7" t="s">
+      <c r="H447" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I447" s="0" t="s">
@@ -14623,7 +14640,7 @@
       <c r="G448" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H448" s="7" t="s">
+      <c r="H448" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I448" s="0" t="s">
@@ -14655,7 +14672,7 @@
       <c r="G449" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H449" s="7" t="s">
+      <c r="H449" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I449" s="0" t="s">
@@ -16735,7 +16752,7 @@
       <c r="G514" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H514" s="7" t="s">
+      <c r="H514" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I514" s="0" t="s">
@@ -16767,7 +16784,7 @@
       <c r="G515" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H515" s="7" t="s">
+      <c r="H515" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I515" s="0" t="s">
@@ -16799,7 +16816,7 @@
       <c r="G516" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H516" s="7" t="s">
+      <c r="H516" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I516" s="0" t="s">
@@ -16831,7 +16848,7 @@
       <c r="G517" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H517" s="7" t="s">
+      <c r="H517" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I517" s="0" t="s">
@@ -16863,7 +16880,7 @@
       <c r="G518" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H518" s="7" t="s">
+      <c r="H518" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I518" s="0" t="s">
@@ -16895,7 +16912,7 @@
       <c r="G519" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H519" s="7" t="s">
+      <c r="H519" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I519" s="0" t="s">
@@ -16927,7 +16944,7 @@
       <c r="G520" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H520" s="7" t="s">
+      <c r="H520" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I520" s="0" t="s">
@@ -16959,7 +16976,7 @@
       <c r="G521" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H521" s="7" t="s">
+      <c r="H521" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I521" s="0" t="s">
@@ -16991,7 +17008,7 @@
       <c r="G522" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H522" s="7" t="s">
+      <c r="H522" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I522" s="0" t="s">
@@ -17023,7 +17040,7 @@
       <c r="G523" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H523" s="7" t="s">
+      <c r="H523" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I523" s="0" t="s">
@@ -17055,7 +17072,7 @@
       <c r="G524" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H524" s="7" t="s">
+      <c r="H524" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I524" s="0" t="s">
@@ -17087,7 +17104,7 @@
       <c r="G525" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H525" s="7" t="s">
+      <c r="H525" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I525" s="0" t="s">
@@ -17119,7 +17136,7 @@
       <c r="G526" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H526" s="7" t="s">
+      <c r="H526" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I526" s="0" t="s">
@@ -17151,7 +17168,7 @@
       <c r="G527" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H527" s="7" t="s">
+      <c r="H527" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I527" s="0" t="s">
@@ -17183,7 +17200,7 @@
       <c r="G528" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H528" s="7" t="s">
+      <c r="H528" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I528" s="0" t="s">
@@ -17215,7 +17232,7 @@
       <c r="G529" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H529" s="7" t="s">
+      <c r="H529" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I529" s="0" t="s">
@@ -17247,7 +17264,7 @@
       <c r="G530" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H530" s="7" t="s">
+      <c r="H530" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I530" s="0" t="s">
@@ -17279,7 +17296,7 @@
       <c r="G531" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H531" s="7" t="s">
+      <c r="H531" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I531" s="0" t="s">
@@ -17311,7 +17328,7 @@
       <c r="G532" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H532" s="7" t="s">
+      <c r="H532" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I532" s="0" t="s">
@@ -17343,7 +17360,7 @@
       <c r="G533" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H533" s="7" t="s">
+      <c r="H533" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I533" s="0" t="s">
@@ -17375,7 +17392,7 @@
       <c r="G534" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H534" s="7" t="s">
+      <c r="H534" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I534" s="0" t="s">
@@ -17407,7 +17424,7 @@
       <c r="G535" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H535" s="7" t="s">
+      <c r="H535" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I535" s="0" t="s">
@@ -17439,7 +17456,7 @@
       <c r="G536" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H536" s="7" t="s">
+      <c r="H536" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I536" s="0" t="s">
@@ -17471,7 +17488,7 @@
       <c r="G537" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H537" s="7" t="s">
+      <c r="H537" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I537" s="0" t="s">
@@ -17503,7 +17520,7 @@
       <c r="G538" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H538" s="7" t="s">
+      <c r="H538" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I538" s="0" t="s">
@@ -17535,7 +17552,7 @@
       <c r="G539" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H539" s="7" t="s">
+      <c r="H539" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I539" s="0" t="s">
@@ -17567,7 +17584,7 @@
       <c r="G540" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H540" s="7" t="s">
+      <c r="H540" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I540" s="0" t="s">
@@ -17599,7 +17616,7 @@
       <c r="G541" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H541" s="7" t="s">
+      <c r="H541" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I541" s="0" t="s">
@@ -17631,7 +17648,7 @@
       <c r="G542" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H542" s="7" t="s">
+      <c r="H542" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I542" s="0" t="s">
@@ -17663,7 +17680,7 @@
       <c r="G543" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H543" s="7" t="s">
+      <c r="H543" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I543" s="0" t="s">
@@ -17695,7 +17712,7 @@
       <c r="G544" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H544" s="7" t="s">
+      <c r="H544" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I544" s="0" t="s">
@@ -17727,7 +17744,7 @@
       <c r="G545" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H545" s="7" t="s">
+      <c r="H545" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I545" s="0" t="s">
@@ -18762,6 +18779,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J577"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -18769,5 +18787,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>